--- a/data/Test_plan.xlsx
+++ b/data/Test_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CCD08-5E96-417B-8F0E-17F67D35DE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AE48C3-B474-4669-B14B-F15685020BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="4" xr2:uid="{B737EE89-5CA3-4CE8-A8AC-75038489CD7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{B737EE89-5CA3-4CE8-A8AC-75038489CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST PLAN" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="137">
   <si>
     <t>Precondition:</t>
   </si>
@@ -282,9 +282,6 @@
     <t>The user can add wish list.</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on </t>
-  </si>
-  <si>
     <t>automation1234</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>Glavna</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F978511C-390A-4FE9-9387-BA6A8677864E}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1">
@@ -1129,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1140,13 +1140,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1224,7 +1224,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -1240,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F46C64D-BAC7-41AE-ACB3-779D8342595F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -1354,11 +1354,11 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="13"/>
       <c r="D11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="39"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="13"/>
       <c r="D27" s="17" t="s">
@@ -1592,7 +1592,7 @@
     </row>
     <row r="42" spans="1:6" ht="37.5" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="13"/>
       <c r="D42" s="17" t="s">
@@ -1696,11 +1696,11 @@
     </row>
     <row r="57" spans="1:7" ht="39" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="13"/>
       <c r="D57" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="1"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
@@ -1871,10 +1871,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="34"/>
     </row>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2459229E-92DF-482E-BE1F-E047074502E5}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
@@ -1974,18 +1974,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1993,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2001,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2009,10 +2009,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2020,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="6">
         <v>123456</v>
@@ -2042,7 +2042,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -2053,10 +2053,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="6">
         <v>2000</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>54</v>
@@ -2097,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>54</v>
@@ -2130,10 +2130,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="27" customFormat="1">
@@ -2150,15 +2150,15 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" ht="39">
       <c r="A24" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="44"/>
     </row>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B777E-A22C-479E-98EA-DB29E426CB33}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2290,7 +2290,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
@@ -2308,10 +2308,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -2392,10 +2392,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2418,13 +2418,13 @@
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1">
       <c r="A17" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="44"/>
     </row>
@@ -2538,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>54</v>
@@ -2593,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>20</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1">
       <c r="A38" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="44"/>
     </row>
@@ -2713,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2730,13 +2730,13 @@
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" s="44"/>
     </row>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -2869,10 +2869,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="22"/>
     </row>
@@ -2881,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="22"/>
     </row>
@@ -2903,19 +2903,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" ht="26.25">
       <c r="A14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="44"/>
     </row>
@@ -2943,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F91B2F-FC7E-441E-985B-C6A85D9E3393}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3031,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="11" spans="1:6" s="12" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="44"/>
     </row>
@@ -3087,7 +3087,9 @@
       <c r="C14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="26" t="s">
         <v>8</v>
       </c>
@@ -3154,10 +3156,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -3175,10 +3177,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -3196,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -3208,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -3217,29 +3219,26 @@
         <v>2</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1">
       <c r="A28" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>96</v>
+        <v>131</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="44"/>
     </row>
     <row r="32" spans="1:6" s="26" customFormat="1" ht="32.25" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="26" t="s">
@@ -3308,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -3329,10 +3328,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -3353,10 +3352,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3"/>
     </row>
@@ -3365,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -3374,7 +3373,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -3383,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -3392,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -3401,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -3410,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="3"/>
     </row>
@@ -3419,20 +3418,17 @@
         <v>2</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1"/>
       <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" s="12" customFormat="1">
       <c r="A51" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F51" s="44"/>
     </row>

--- a/data/Test_plan.xlsx
+++ b/data/Test_plan.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AE48C3-B474-4669-B14B-F15685020BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{220DCA94-09F2-4FDC-99B1-C99219AAA511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{B737EE89-5CA3-4CE8-A8AC-75038489CD7A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24300" windowHeight="13800" firstSheet="1" activeTab="6" xr2:uid="{B737EE89-5CA3-4CE8-A8AC-75038489CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST PLAN" sheetId="2" r:id="rId1"/>
@@ -29,7 +24,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'MY PERSONAL INFO'!$A$1:$D$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'MY WISHLIST'!$A$1:$D$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="136">
   <si>
     <t>Precondition:</t>
   </si>
@@ -309,9 +305,6 @@
     <t>Click on "OK" button in the pop-up window.</t>
   </si>
   <si>
-    <t>Back to your account.</t>
-  </si>
-  <si>
     <t>Click "OK" on pop-up window.</t>
   </si>
   <si>
@@ -327,9 +320,6 @@
     <t>There is 1 error                                                     1. An email address required.</t>
   </si>
   <si>
-    <t>PROVERI</t>
-  </si>
-  <si>
     <t>Enter a City in the field "City"</t>
   </si>
   <si>
@@ -451,13 +441,16 @@
   </si>
   <si>
     <t>Alaska</t>
+  </si>
+  <si>
+    <t>View</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,13 +559,6 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="21"/>
       <color theme="1"/>
       <name val="Inherit"/>
@@ -618,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -714,15 +700,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1054,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F978511C-390A-4FE9-9387-BA6A8677864E}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1108,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1">
@@ -1129,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1140,13 +1131,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1224,7 +1215,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -1238,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F46C64D-BAC7-41AE-ACB3-779D8342595F}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1354,11 +1345,11 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="13"/>
       <c r="D11" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="39"/>
@@ -1480,7 +1471,7 @@
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="13"/>
       <c r="D27" s="17" t="s">
@@ -1592,7 +1583,7 @@
     </row>
     <row r="42" spans="1:6" ht="37.5" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="13"/>
       <c r="D42" s="17" t="s">
@@ -1692,15 +1683,15 @@
         <v>40</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="G56" s="47"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7" ht="39" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B57" s="13"/>
       <c r="D57" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="1"/>
@@ -1746,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFECAC8-E412-462B-9F2D-99739BF279E7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1771,7 +1762,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
@@ -1871,10 +1862,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" s="34"/>
     </row>
@@ -1901,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2459229E-92DF-482E-BE1F-E047074502E5}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1920,7 +1911,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
@@ -1974,18 +1965,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1993,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2001,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2009,10 +2000,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2020,10 +2011,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2031,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="6">
         <v>123456</v>
@@ -2042,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -2053,10 +2044,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2064,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="6">
         <v>2000</v>
@@ -2075,10 +2066,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2086,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>54</v>
@@ -2097,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>54</v>
@@ -2130,10 +2121,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2141,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="27" customFormat="1">
@@ -2150,15 +2141,15 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" ht="39">
       <c r="A24" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" s="44"/>
     </row>
@@ -2179,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980B777E-A22C-479E-98EA-DB29E426CB33}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2222,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
@@ -2265,106 +2256,106 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="13"/>
-      <c r="B8" s="52">
+      <c r="B8" s="51">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1">
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
+      <c r="D9" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="1:14" s="10" customFormat="1">
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
+        <v>94</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1">
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1">
-      <c r="B12" s="50">
+      <c r="B12" s="49">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>11000</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="3">
@@ -2376,26 +2367,26 @@
       <c r="D13" s="6">
         <v>2223334</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>97</v>
+      <c r="C14" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2416,26 +2407,23 @@
       <c r="D16" s="30"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1">
-      <c r="A17" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="45" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1">
-      <c r="C18" s="49"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="47"/>
       <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1">
-      <c r="C19" s="49"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="47"/>
       <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:11">
@@ -2518,51 +2506,51 @@
       <c r="B28" s="3">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1">
-      <c r="B29" s="50">
+      <c r="B29" s="49">
         <v>3</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1">
-      <c r="B30" s="50">
+      <c r="B30" s="49">
         <v>4</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1">
-      <c r="B31" s="50">
+      <c r="B31" s="49">
         <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1">
-      <c r="B32" s="50">
+      <c r="B32" s="49">
         <v>6</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="50">
         <v>11000</v>
       </c>
     </row>
@@ -2570,7 +2558,7 @@
       <c r="B33" s="3">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="6">
@@ -2581,7 +2569,7 @@
       <c r="B34" s="3">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="6">
@@ -2592,8 +2580,8 @@
       <c r="B35" s="3">
         <v>9</v>
       </c>
-      <c r="C35" s="46" t="s">
-        <v>97</v>
+      <c r="C35" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>20</v>
@@ -2618,13 +2606,10 @@
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1">
       <c r="A38" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>17</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F38" s="44"/>
     </row>
@@ -2713,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2730,13 +2715,10 @@
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>17</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F53" s="44"/>
     </row>
@@ -2763,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB64CB0-9F32-43EF-906F-702EE7A9D100}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2909,13 +2891,10 @@
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" ht="26.25">
       <c r="A14" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F14" s="44"/>
     </row>
@@ -2943,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F91B2F-FC7E-441E-985B-C6A85D9E3393}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3031,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -3059,13 +3038,10 @@
     </row>
     <row r="11" spans="1:6" s="12" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>95</v>
+        <v>129</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>135</v>
       </c>
       <c r="F11" s="44"/>
     </row>
@@ -3156,10 +3132,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -3177,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -3198,10 +3174,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -3225,16 +3201,16 @@
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1">
       <c r="A28" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F28" s="44"/>
     </row>
     <row r="32" spans="1:6" s="26" customFormat="1" ht="32.25" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19" t="s">
@@ -3307,10 +3283,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -3328,10 +3304,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -3352,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F43" s="3"/>
     </row>
@@ -3364,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -3382,7 +3358,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -3400,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -3418,17 +3394,17 @@
         <v>2</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1"/>
       <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" s="12" customFormat="1">
       <c r="A51" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>89</v>
+        <v>129</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="F51" s="44"/>
     </row>
